--- a/Tables/BMS_Main_NG.xlsx
+++ b/Tables/BMS_Main_NG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF01A19-0862-41F4-AFD2-525F75757F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA56A50-88A4-4DA6-94C2-4451DEFF05FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="3132" windowWidth="17280" windowHeight="8916" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5751,8 +5751,8 @@
       <sheetName val="Лист5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="I1" t="str">
@@ -6213,8 +6213,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6507,7 +6507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M31"/>
     </sheetView>
   </sheetViews>
@@ -34444,7 +34444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53C5360-B61C-4A94-B35B-6522E2C8556A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -34469,7 +34469,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1776</v>
       </c>
@@ -34569,7 +34569,7 @@
         <v>{'0x02': 'SIGNED8', '0x03': 'SIGNED16', '0x04': 'SIGNED32', '0x15': 'SIGNED64'</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>1792</v>
       </c>
@@ -34594,7 +34594,7 @@
         <v>{'0x02': 'SIGNED8', '0x03': 'SIGNED16', '0x04': 'SIGNED32', '0x15': 'SIGNED64', '0x05': 'UNSIGNED8'</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1795</v>
       </c>
@@ -34619,7 +34619,7 @@
         <v>{'0x02': 'SIGNED8', '0x03': 'SIGNED16', '0x04': 'SIGNED32', '0x15': 'SIGNED64', '0x05': 'UNSIGNED8', '0x06': 'UNSIGNED16'</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>1798</v>
       </c>
@@ -34644,7 +34644,7 @@
         <v>{'0x02': 'SIGNED8', '0x03': 'SIGNED16', '0x04': 'SIGNED32', '0x15': 'SIGNED64', '0x05': 'UNSIGNED8', '0x06': 'UNSIGNED16', '0x07': 'UNSIGNED32'</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>1802</v>
       </c>
@@ -34767,7 +34767,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>1814</v>
       </c>
@@ -34781,7 +34781,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>1814</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>1814</v>
       </c>
@@ -34809,7 +34809,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>1814</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>1831</v>
       </c>
@@ -34837,7 +34837,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>1835</v>
       </c>
@@ -34851,7 +34851,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>1839</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>1814</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>1814</v>
       </c>
@@ -34893,7 +34893,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>1847</v>
       </c>
